--- a/H30年度/Git/04_Gitまとめ/Git-Subversionにおけるマージ_まとめ_20180803.xlsx
+++ b/H30年度/Git/04_Gitまとめ/Git-Subversionにおけるマージ_まとめ_20180803.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\HanakaYui\デスクトップ\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{3F129965-1D9A-4825-A379-9B8DFBA43BDD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7905" tabRatio="706" xr2:uid="{0B7B0A26-B88C-44DC-AEB8-9CEB987F2C9B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7905" tabRatio="706"/>
   </bookViews>
   <sheets>
     <sheet name="1.はじめに～まとめ" sheetId="8" r:id="rId1"/>
     <sheet name="【別紙】検証結果" sheetId="9" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>■はじめに</t>
     <phoneticPr fontId="1"/>
@@ -109,38 +103,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>そこで、SVNでは自動マージできない部分も同様なバージョン管理ツール”Git”を用いることで、</t>
-    <rPh sb="9" eb="11">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ドウヨウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>モチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自動マージをすることができるかの検証を行う。</t>
-    <rPh sb="0" eb="2">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ケンショウ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>■まとめ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -283,37 +245,6 @@
     </rPh>
     <rPh sb="43" eb="44">
       <t>デ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>手動での競合回避には、「漏れなどのリスク」や「膨大な時間の消費」が伴うため避けるべきである。</t>
-    <rPh sb="0" eb="2">
-      <t>シュドウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>キョウゴウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カイヒ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ボウダイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ショウヒ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>トモナ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>サ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -395,11 +326,78 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>手動マージは、「漏れなどのリスク」や「膨大な時間の消費」が伴うため避けるべきである。</t>
+    <rPh sb="0" eb="2">
+      <t>シュドウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ボウダイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>トモナ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そこで、SVNでは自動マージできない部分も、</t>
+    <rPh sb="9" eb="11">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ブブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>”Git”を用いることで、自動マージをすることができるかの検証を行う。</t>
+    <rPh sb="13" eb="15">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ケンショウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ただし、Gitでもすべてを自動マージできるわけではないため、最終的に手動マージが必要になる場合もある。</t>
+    <rPh sb="14" eb="16">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>サイシュウテキ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>シュドウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -513,7 +511,7 @@
         <xdr:cNvPr id="51" name="四角形: 角を丸くする 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE59202A-10C0-41A9-BFE1-73F7B846B6FF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BE59202A-10C0-41A9-BFE1-73F7B846B6FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -588,7 +586,7 @@
         <xdr:cNvPr id="2" name="図 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E71B238-3F5E-4273-AB43-BD7ADABC040F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8E71B238-3F5E-4273-AB43-BD7ADABC040F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -662,7 +660,7 @@
         <xdr:cNvPr id="3" name="図 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61DA49E5-FF7B-4F99-ACAF-329E1EB53572}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{61DA49E5-FF7B-4F99-ACAF-329E1EB53572}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -736,7 +734,7 @@
         <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F55F06E-305C-4500-A0F2-82A62E901B77}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F55F06E-305C-4500-A0F2-82A62E901B77}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -799,7 +797,7 @@
         <xdr:cNvPr id="5" name="矢印: 右 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FAAC781-9258-4457-B881-FDC1ADFAC419}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1FAAC781-9258-4457-B881-FDC1ADFAC419}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -866,7 +864,7 @@
         <xdr:cNvPr id="6" name="矢印: 右 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D91323D5-2BD6-4B52-8D13-CE623127905A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D91323D5-2BD6-4B52-8D13-CE623127905A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -933,7 +931,7 @@
         <xdr:cNvPr id="8" name="図 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32043078-5F2E-42AB-AF75-EA1EC8266E85}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32043078-5F2E-42AB-AF75-EA1EC8266E85}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1007,7 +1005,7 @@
         <xdr:cNvPr id="10" name="図 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15447FF8-F698-4EA9-81CC-47B7DFFE4D8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{15447FF8-F698-4EA9-81CC-47B7DFFE4D8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1081,7 +1079,7 @@
         <xdr:cNvPr id="11" name="正方形/長方形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{351872E8-7062-4BD7-9B76-C72D61F09891}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{351872E8-7062-4BD7-9B76-C72D61F09891}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1144,7 +1142,7 @@
         <xdr:cNvPr id="12" name="図 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{476E8CA9-EFA8-4710-BDC3-1F7A1057CA79}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{476E8CA9-EFA8-4710-BDC3-1F7A1057CA79}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1218,7 +1216,7 @@
         <xdr:cNvPr id="13" name="正方形/長方形 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0D9DFB5-5F37-43DB-AC3E-8377958A044F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E0D9DFB5-5F37-43DB-AC3E-8377958A044F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1281,7 +1279,7 @@
         <xdr:cNvPr id="14" name="図 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5058267-E7E9-4D5A-A3C5-2AA146843C67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C5058267-E7E9-4D5A-A3C5-2AA146843C67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1355,7 +1353,7 @@
         <xdr:cNvPr id="15" name="正方形/長方形 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBECAAC1-F938-483F-8CD3-44D5A3E147CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BBECAAC1-F938-483F-8CD3-44D5A3E147CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1418,7 +1416,7 @@
         <xdr:cNvPr id="16" name="吹き出し: 線 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8A2659F-663D-4F57-A6AB-38DE6EBB885B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F8A2659F-663D-4F57-A6AB-38DE6EBB885B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1509,7 +1507,7 @@
         <xdr:cNvPr id="17" name="図 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{075B06D4-8524-4382-B0B6-9150AE41B3D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{075B06D4-8524-4382-B0B6-9150AE41B3D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1583,7 +1581,7 @@
         <xdr:cNvPr id="18" name="正方形/長方形 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{358957D7-2F8C-4BD6-A6CA-F858D92809F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{358957D7-2F8C-4BD6-A6CA-F858D92809F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1646,7 +1644,7 @@
         <xdr:cNvPr id="19" name="図 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D120908-0AE7-4772-A579-516BEF967C25}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0D120908-0AE7-4772-A579-516BEF967C25}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1720,7 +1718,7 @@
         <xdr:cNvPr id="20" name="図 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E42390C1-C605-496E-8D14-A1F5CCF44DA2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E42390C1-C605-496E-8D14-A1F5CCF44DA2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1794,7 +1792,7 @@
         <xdr:cNvPr id="21" name="図 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{956D466D-ECFA-49A2-B8AD-5C4B5D5D65C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{956D466D-ECFA-49A2-B8AD-5C4B5D5D65C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1868,7 +1866,7 @@
         <xdr:cNvPr id="22" name="正方形/長方形 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FA8E951-8156-434B-AB89-A21FDD1D162A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1FA8E951-8156-434B-AB89-A21FDD1D162A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1931,7 +1929,7 @@
         <xdr:cNvPr id="23" name="図 90">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26B67C41-D500-4542-9C26-22BC74FFAA21}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{26B67C41-D500-4542-9C26-22BC74FFAA21}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2005,7 +2003,7 @@
         <xdr:cNvPr id="24" name="正方形/長方形 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{649F75B8-F08C-427E-AA19-FE69F1E68716}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{649F75B8-F08C-427E-AA19-FE69F1E68716}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2068,7 +2066,7 @@
         <xdr:cNvPr id="25" name="図 102">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1469E73F-B621-4714-927B-684AB0EAE1C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1469E73F-B621-4714-927B-684AB0EAE1C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2142,7 +2140,7 @@
         <xdr:cNvPr id="26" name="正方形/長方形 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61D3BB38-6C07-416F-9BD4-4326B326C6DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{61D3BB38-6C07-416F-9BD4-4326B326C6DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2205,7 +2203,7 @@
         <xdr:cNvPr id="27" name="図 104">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63F33D69-9F57-49C4-A54C-C3A8BE62CF99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{63F33D69-9F57-49C4-A54C-C3A8BE62CF99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2279,7 +2277,7 @@
         <xdr:cNvPr id="28" name="正方形/長方形 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29CBE65F-E47C-4C1B-9B29-EF7AF91FCA41}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29CBE65F-E47C-4C1B-9B29-EF7AF91FCA41}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2342,7 +2340,7 @@
         <xdr:cNvPr id="29" name="吹き出し: 線 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B83D565-0DAA-4EAC-BCD5-C5EE4B8D6A6F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B83D565-0DAA-4EAC-BCD5-C5EE4B8D6A6F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2425,7 +2423,7 @@
         <xdr:cNvPr id="30" name="図 107">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F87FD0C-9E7F-409A-B390-4A7EE266DB1B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3F87FD0C-9E7F-409A-B390-4A7EE266DB1B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2499,7 +2497,7 @@
         <xdr:cNvPr id="31" name="正方形/長方形 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FFA78D5-5D73-4553-BA63-4DD662470768}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1FFA78D5-5D73-4553-BA63-4DD662470768}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2562,7 +2560,7 @@
         <xdr:cNvPr id="32" name="吹き出し: 線 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3FDC065-432A-440B-A639-5E746844E7FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D3FDC065-432A-440B-A639-5E746844E7FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2633,7 +2631,7 @@
         <xdr:cNvPr id="33" name="図 108">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB0638C9-78CE-4E77-9048-32098D71B2CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DB0638C9-78CE-4E77-9048-32098D71B2CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2707,7 +2705,7 @@
         <xdr:cNvPr id="34" name="正方形/長方形 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{070BA63A-7652-4880-B44D-FC900E1ED97C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{070BA63A-7652-4880-B44D-FC900E1ED97C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2770,7 +2768,7 @@
         <xdr:cNvPr id="35" name="吹き出し: 線 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B54FD03-28B3-4533-A1D3-9038C26B7C42}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B54FD03-28B3-4533-A1D3-9038C26B7C42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2842,7 +2840,7 @@
         <xdr:cNvPr id="36" name="図 111">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{013E8B6C-F071-4978-8069-517336E334B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{013E8B6C-F071-4978-8069-517336E334B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2916,7 +2914,7 @@
         <xdr:cNvPr id="37" name="正方形/長方形 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{258A0EE1-FEB1-4F1B-A3DA-F4E29DBC34EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{258A0EE1-FEB1-4F1B-A3DA-F4E29DBC34EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2979,7 +2977,7 @@
         <xdr:cNvPr id="38" name="図 112">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE722F53-6119-4720-B16B-4B15A68C6687}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE722F53-6119-4720-B16B-4B15A68C6687}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3053,7 +3051,7 @@
         <xdr:cNvPr id="39" name="吹き出し: 線 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6662A8D0-E100-4BBE-9268-45D0EDD57145}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6662A8D0-E100-4BBE-9268-45D0EDD57145}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3196,7 +3194,7 @@
         <xdr:cNvPr id="40" name="正方形/長方形 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70CAD675-5052-4844-945B-FAF6077D3DBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{70CAD675-5052-4844-945B-FAF6077D3DBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3259,7 +3257,7 @@
         <xdr:cNvPr id="41" name="図 115">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4E210C1-610E-402F-90CA-3E7896C73CD5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4E210C1-610E-402F-90CA-3E7896C73CD5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3333,7 +3331,7 @@
         <xdr:cNvPr id="42" name="正方形/長方形 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{959BDEF9-E6CF-4752-8B3E-3C06EB946A94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{959BDEF9-E6CF-4752-8B3E-3C06EB946A94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3396,7 +3394,7 @@
         <xdr:cNvPr id="43" name="吹き出し: 線 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5B454CD-5174-4BF7-8F34-5379815EA45E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D5B454CD-5174-4BF7-8F34-5379815EA45E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3471,7 +3469,7 @@
         <xdr:cNvPr id="44" name="図 116">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8DDADC0-99A9-43EC-BBAE-1A8DC92F8E35}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A8DDADC0-99A9-43EC-BBAE-1A8DC92F8E35}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3545,7 +3543,7 @@
         <xdr:cNvPr id="45" name="図 117">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2AFDBBA-97AA-473F-8B7A-4F6FB69B12C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F2AFDBBA-97AA-473F-8B7A-4F6FB69B12C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3619,7 +3617,7 @@
         <xdr:cNvPr id="46" name="吹き出し: 線 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BF4E9F8-4BE0-4185-8824-50243AB3DFD7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8BF4E9F8-4BE0-4185-8824-50243AB3DFD7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3691,7 +3689,7 @@
         <xdr:cNvPr id="47" name="正方形/長方形 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3B11110-83B6-4DA4-AE42-643AC49E3968}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C3B11110-83B6-4DA4-AE42-643AC49E3968}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3754,7 +3752,7 @@
         <xdr:cNvPr id="48" name="矢印: 右 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8B0C75E-5830-43F7-A0C7-9487FC5B5C54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A8B0C75E-5830-43F7-A0C7-9487FC5B5C54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3821,7 +3819,7 @@
         <xdr:cNvPr id="49" name="図 94">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98A9A8C6-6041-4BD0-908E-E5E979E0156B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{98A9A8C6-6041-4BD0-908E-E5E979E0156B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3895,7 +3893,7 @@
         <xdr:cNvPr id="50" name="吹き出し: 線 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C90747B6-7402-4642-ADC7-CAD605730E71}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C90747B6-7402-4642-ADC7-CAD605730E71}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3966,7 +3964,7 @@
         <xdr:cNvPr id="52" name="正方形/長方形 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADCC0E48-E4B3-4106-AD78-0111B3B45B7E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ADCC0E48-E4B3-4106-AD78-0111B3B45B7E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4029,7 +4027,7 @@
         <xdr:cNvPr id="53" name="吹き出し: 線 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96DFF9F6-B15F-417D-959F-32E2D07EFE8C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{96DFF9F6-B15F-417D-959F-32E2D07EFE8C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4104,7 +4102,7 @@
         <xdr:cNvPr id="54" name="正方形/長方形 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75B256B9-0286-4DF7-A897-70E4A1D48622}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{75B256B9-0286-4DF7-A897-70E4A1D48622}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4441,17 +4439,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{183F22F4-4EA2-495E-B49B-369A01EABFA1}">
-  <dimension ref="A1:E19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -4470,47 +4470,47 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B12" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B15" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
@@ -4518,31 +4518,36 @@
         <v>11</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D17" s="1" t="s">
-        <v>18</v>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="E18" s="1" t="s">
+        <v>32</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C18" s="1" t="s">
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D19" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D20" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>23</v>
+      <c r="E20" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -4553,7 +4558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF8C254-500C-4C6A-AEBF-59A9A03F841D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG285"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -4565,7 +4570,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
@@ -4578,7 +4583,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.4">
@@ -4588,12 +4593,12 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B38" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="110" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A110" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="111" spans="1:33" x14ac:dyDescent="0.4">
@@ -4760,12 +4765,12 @@
     </row>
     <row r="232" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B232" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="285" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B285" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
